--- a/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,39</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,56</t>
+          <t>0; 2,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,83</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 10,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,07</t>
+          <t>0,0; 6,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,88</t>
+          <t>0,64; 6,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,51</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>3,1%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,23</t>
+          <t>0,0; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>1,32; 11,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>1,37; 12,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>0,0; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,78</t>
+          <t>0; 2,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>0,0; 5,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,02</t>
+          <t>0,58; 4,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>1,16; 6,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,52</t>
+          <t>0,0; 13,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,39</t>
+          <t>1,21; 11,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>0; 3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 15,36</t>
+          <t>1,53; 14,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,67</t>
+          <t>1,02; 10,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,88</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,46</t>
+          <t>1,8; 10,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,67</t>
+          <t>1,6; 8,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,23</t>
+          <t>0,0; 6,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0; 2,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>1,26; 13,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,78</t>
+          <t>0,0; 9,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>1,2; 7,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,02</t>
+          <t>0,56; 5,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,22 +852,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -877,22 +877,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 13,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,39</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,56</t>
+          <t>1,65; 15,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,83</t>
+          <t>0,0; 10,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0; 2,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,07</t>
+          <t>0,0; 8,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,88</t>
+          <t>0; 1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,51</t>
+          <t>0,81; 8,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,15</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,6</t>
+          <t>1,85; 17,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,67</t>
+          <t>0; 5,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,96</t>
+          <t>0,0; 12,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,15</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,66</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,94</t>
+          <t>0,0; 6,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,08</t>
+          <t>0,89; 7,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,14</t>
+          <t>0,0; 4,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 5,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 5,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 4,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 7,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 4,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 5,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 4,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,79</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,73</t>
+          <t>1,21; 11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 14,49</t>
+          <t>1,47; 13,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,49</t>
+          <t>1,01; 9,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,77</t>
+          <t>1,88; 11,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,36</t>
+          <t>1,61; 8,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,0; 5,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,48</t>
+          <t>1,4; 11,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 8,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,35</t>
+          <t>1,2; 7,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,63</t>
+          <t>0,57; 5,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,68</t>
+          <t>0,0; 13,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 15,05</t>
+          <t>1,65; 14,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,89</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,76</t>
+          <t>0,0; 8,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,06</t>
+          <t>0,81; 8,01</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 8,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 17,04</t>
+          <t>1,87; 13,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,93</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,22 +1040,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>0,0; 7,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,83</t>
+          <t>0,0; 7,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,56</t>
+          <t>0,91; 8,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,05</t>
+          <t>0,89; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,62</t>
+          <t>1,33; 5,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,64</t>
+          <t>0,47; 4,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,65</t>
+          <t>2,18; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,3</t>
+          <t>0,62; 4,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,22</t>
+          <t>0,35; 3,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,02</t>
+          <t>1,85; 5,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,06</t>
+          <t>1,28; 4,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,12</t>
+          <t>0,73; 3,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A09-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,5%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>4,38%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,9</t>
+          <t>1,53; 14,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,09</t>
+          <t>1,01; 10,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 10,99</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,62</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 12,06</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0; 3,9</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 13,26</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 9,84</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,54</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 11,08</t>
+          <t>1,77; 10,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,62</t>
+          <t>1,59; 8,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,27%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>1,9%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,43</t>
+          <t>1,37; 12,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,87</t>
+          <t>0,0; 8,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,65</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,77</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 2,7</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 11,89</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,84</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,19</t>
+          <t>1,2; 7,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,32</t>
+          <t>0,56; 5,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,71%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>6,54%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,37 +905,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,79</t>
+          <t>0,0; 10,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0; 3,54</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,99</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,11</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 4,07</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 14,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,95</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,54</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>1,64; 14,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,84</t>
+          <t>0,0; 8,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,01</t>
+          <t>0,81; 8,15</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>5,83%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,23</t>
+          <t>0,0; 14,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 13,96</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,02</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,18</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 14,25</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0; 5,03</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,66</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,68</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,48</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,3</t>
+          <t>0,0; 6,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,23</t>
+          <t>0,88; 7,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,27%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>2,92%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,89%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,43</t>
+          <t>2,02; 7,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,54</t>
+          <t>0,68; 4,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,62</t>
+          <t>0,35; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,6</t>
+          <t>0,89; 5,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,2</t>
+          <t>1,36; 5,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,49</t>
+          <t>0,48; 4,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,16</t>
+          <t>1,69; 4,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,13</t>
+          <t>1,35; 4,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,12</t>
+          <t>0,74; 3,14</t>
         </is>
       </c>
     </row>
